--- a/documents/Resource Requirements2/卡牌背包界面美术资源需求.xlsx
+++ b/documents/Resource Requirements2/卡牌背包界面美术资源需求.xlsx
@@ -54,18 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>105*90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>批量卖出按钮</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>必要文本：批量卖出</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>卡牌背包标题</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -74,10 +62,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>必要文本：卡牌背包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>点击后进入批量卖出状态，玩家点击卡牌后，卡牌即被出售，当卡牌处于出阵状态或有装备、宝石时无法被出售，卡牌图标变暗处理</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -87,14 +71,6 @@
   </si>
   <si>
     <t>110*35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>须具有一定底透明度，边缘不规则处理</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>种族分页符</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -351,6 +327,32 @@
   </si>
   <si>
     <t>星级排列按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>105*90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量卖出/确定卖出按钮</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>批量卖出按钮的必要文本：批量卖出
+确定卖出按钮的必要文本：确定卖出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>必要文本：卡牌背包
+包含背景框</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>须具有一定底透明度，边缘淡化处理</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选按钮</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -694,8 +696,8 @@
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>4263984</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1857375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1025,7 +1027,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1074,36 +1076,36 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>77</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+    </row>
+    <row r="3" spans="1:9" ht="27">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="27">
@@ -1111,16 +1113,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1128,13 +1130,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1142,13 +1144,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27">
@@ -1156,19 +1158,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1176,13 +1178,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="40.5">
@@ -1190,19 +1192,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1210,13 +1212,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1224,13 +1226,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1238,16 +1240,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1255,16 +1257,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1272,16 +1274,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="152.25" customHeight="1">
@@ -1289,16 +1291,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1306,13 +1308,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1320,13 +1322,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="54">
@@ -1334,16 +1336,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="54">
@@ -1351,16 +1353,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1368,13 +1370,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1382,13 +1384,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1396,13 +1398,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1410,13 +1412,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1424,16 +1426,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1441,16 +1443,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="27">
@@ -1458,16 +1460,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1475,16 +1477,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="54">
@@ -1492,16 +1494,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1509,16 +1511,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1526,16 +1528,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1543,13 +1545,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1557,16 +1559,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1574,16 +1576,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
